--- a/Templates/BOM/Template_BOM_Mouser.xlsx
+++ b/Templates/BOM/Template_BOM_Mouser.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Altium\Templates\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Altium\AD20\Library\Altium_Library_Kam\Templates\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Part List Report" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Project Full Path</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Column=Case</t>
   </si>
   <si>
-    <t>Column=Supplier</t>
-  </si>
-  <si>
     <t>Column=Item</t>
   </si>
   <si>
@@ -210,7 +207,13 @@
     <t>Field=ProjectRevision</t>
   </si>
   <si>
-    <t>Column=Supplier Part Number</t>
+    <t>Column=Supplier1</t>
+  </si>
+  <si>
+    <t>Column=Supplier Part Number1</t>
+  </si>
+  <si>
+    <t>Column=Part Number</t>
   </si>
 </sst>
 </file>
@@ -924,7 +927,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1226,6 +1229,9 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1618,10 +1624,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1630,22 +1636,22 @@
     <col min="2" max="2" width="5.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="56" customWidth="1"/>
     <col min="4" max="4" width="20.140625" style="56" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="56" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" style="55" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="28.5703125" style="7" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="7"/>
+    <col min="5" max="6" width="17.28515625" style="56" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" style="55" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="68"/>
       <c r="B1" s="62"/>
       <c r="C1" s="69"/>
@@ -1656,18 +1662,19 @@
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="63"/>
       <c r="M1" s="62"/>
       <c r="N1" s="62"/>
       <c r="O1" s="62"/>
-      <c r="P1" s="64"/>
-    </row>
-    <row r="2" spans="1:16" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="62"/>
+      <c r="Q1" s="64"/>
+    </row>
+    <row r="2" spans="1:17" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="70"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
@@ -1678,14 +1685,15 @@
       <c r="H2" s="65"/>
       <c r="I2" s="65"/>
       <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="65"/>
       <c r="N2" s="65"/>
       <c r="O2" s="65"/>
-      <c r="P2" s="67"/>
-    </row>
-    <row r="3" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="65"/>
+      <c r="Q2" s="67"/>
+    </row>
+    <row r="3" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="70"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
@@ -1695,21 +1703,22 @@
         <v>7</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="12"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="14"/>
       <c r="O3" s="12"/>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="70"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
@@ -1719,21 +1728,22 @@
         <v>3</v>
       </c>
       <c r="E4" s="17"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="12"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="70"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
@@ -1743,41 +1753,43 @@
         <v>5</v>
       </c>
       <c r="E5" s="21"/>
-      <c r="F5" s="12"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="70"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="20"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="12"/>
-      <c r="P6" s="15"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="70"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25" t="s">
@@ -1789,19 +1801,20 @@
       <c r="E7" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="27"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="70"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
@@ -1809,73 +1822,77 @@
       </c>
       <c r="D8" s="91">
         <f ca="1">TODAY()</f>
-        <v>44748</v>
+        <v>44869</v>
       </c>
       <c r="E8" s="92">
         <f ca="1">NOW()</f>
-        <v>44748.526464814815</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="25"/>
+        <v>44869.68741215278</v>
+      </c>
+      <c r="F8" s="104"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="12"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="14"/>
       <c r="O8" s="12"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="1:16" s="28" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="12"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" s="28" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="71"/>
       <c r="B9" s="93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="94" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="94" t="s">
-        <v>50</v>
-      </c>
       <c r="H9" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="94" t="s">
+      <c r="J9" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="94" t="s">
+      <c r="K9" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="94" t="s">
+      <c r="L9" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="95" t="s">
+      <c r="P9" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="96" t="s">
+      <c r="Q9" s="96" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="70"/>
       <c r="B10" s="74">
         <f>ROW(B10) - ROW($B$9)</f>
@@ -1888,15 +1905,16 @@
       <c r="G10" s="76"/>
       <c r="H10" s="76"/>
       <c r="I10" s="76"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="78"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="97"/>
       <c r="O10" s="78"/>
-      <c r="P10" s="79"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="78"/>
+      <c r="Q10" s="79"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="70"/>
       <c r="B11" s="86">
         <f>ROW(B11) - ROW($B$9)</f>
@@ -1909,15 +1927,16 @@
       <c r="G11" s="87"/>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="89"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="99"/>
       <c r="O11" s="89"/>
-      <c r="P11" s="90"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11" s="89"/>
+      <c r="Q11" s="90"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="70"/>
       <c r="B12" s="80">
         <f>ROW(B12) - ROW($B$9)</f>
@@ -1930,42 +1949,44 @@
       <c r="G12" s="82"/>
       <c r="H12" s="82"/>
       <c r="I12" s="82"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="84"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="98"/>
       <c r="O12" s="84"/>
-      <c r="P12" s="85"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="84"/>
+      <c r="Q12" s="85"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="70"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="12"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="34">
-        <f>SUM(J10:J12)</f>
+      <c r="J13" s="12"/>
+      <c r="K13" s="34">
+        <f>SUM(K10:K12)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="35"/>
-      <c r="L13" s="34">
-        <f>SUM(L10:L12)</f>
+      <c r="L13" s="35"/>
+      <c r="M13" s="34">
+        <f>SUM(M10:M12)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36">
-        <f>SUM(O10:O12)</f>
+      <c r="N13" s="34"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36">
+        <f>SUM(P10:P12)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="37"/>
-    </row>
-    <row r="14" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="37"/>
+    </row>
+    <row r="14" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
       <c r="B14" s="100" t="s">
         <v>34</v>
@@ -1973,21 +1994,22 @@
       <c r="C14" s="100"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="41"/>
       <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="12"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="58"/>
-    </row>
-    <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="12"/>
+      <c r="Q14" s="58"/>
+    </row>
+    <row r="15" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
@@ -1997,26 +2019,27 @@
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="38"/>
+      <c r="K15" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="46" t="s">
+      <c r="L15" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="47" t="s">
+      <c r="M15" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="101">
-        <f>O13</f>
+      <c r="N15" s="12"/>
+      <c r="O15" s="101">
+        <f>P13</f>
         <v>0</v>
       </c>
-      <c r="O15" s="102"/>
-      <c r="P15" s="59" t="s">
+      <c r="P15" s="102"/>
+      <c r="Q15" s="59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="70"/>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
@@ -2027,21 +2050,22 @@
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="43" t="s">
+      <c r="K16" s="38"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="43"/>
-      <c r="N16" s="103" t="e">
-        <f>N15/J15</f>
+      <c r="N16" s="43"/>
+      <c r="O16" s="103" t="e">
+        <f>O15/K15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O16" s="103"/>
-      <c r="P16" s="15" t="s">
+      <c r="P16" s="103"/>
+      <c r="Q16" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="72"/>
       <c r="B17" s="49"/>
       <c r="C17" s="50"/>
@@ -2052,43 +2076,47 @@
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
       <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="54"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="50"/>
       <c r="O17" s="54"/>
-      <c r="P17" s="60"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="54"/>
+      <c r="Q17" s="60"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="M10:M12">
+  <conditionalFormatting sqref="N10:N12">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10:O12">
+  <conditionalFormatting sqref="P10:P12">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(O10))=0</formula>
+      <formula>LEN(TRIM(P10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.59055118110236227" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Templates/BOM/Template_BOM_Mouser.xlsx
+++ b/Templates/BOM/Template_BOM_Mouser.xlsx
@@ -207,13 +207,13 @@
     <t>Field=ProjectRevision</t>
   </si>
   <si>
-    <t>Column=Supplier1</t>
-  </si>
-  <si>
-    <t>Column=Supplier Part Number1</t>
-  </si>
-  <si>
     <t>Column=Part Number</t>
+  </si>
+  <si>
+    <t>Column=Supplier Part Number 1</t>
+  </si>
+  <si>
+    <t>Column=Supplier 1</t>
   </si>
 </sst>
 </file>
@@ -1217,6 +1217,9 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1229,9 +1232,6 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1627,7 +1627,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1826,9 +1826,9 @@
       </c>
       <c r="E8" s="92">
         <f ca="1">NOW()</f>
-        <v>44869.68741215278</v>
-      </c>
-      <c r="F8" s="104"/>
+        <v>44869.700702314818</v>
+      </c>
+      <c r="F8" s="100"/>
       <c r="G8" s="12"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -1856,13 +1856,13 @@
         <v>50</v>
       </c>
       <c r="F9" s="94" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="94" t="s">
         <v>59</v>
       </c>
       <c r="H9" s="94" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I9" s="94" t="s">
         <v>49</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="14" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="100"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
       <c r="F14" s="38"/>
@@ -2030,11 +2030,11 @@
         <v>41</v>
       </c>
       <c r="N15" s="12"/>
-      <c r="O15" s="101">
+      <c r="O15" s="102">
         <f>P13</f>
         <v>0</v>
       </c>
-      <c r="P15" s="102"/>
+      <c r="P15" s="103"/>
       <c r="Q15" s="59" t="s">
         <v>42</v>
       </c>
@@ -2056,11 +2056,11 @@
         <v>46</v>
       </c>
       <c r="N16" s="43"/>
-      <c r="O16" s="103" t="e">
+      <c r="O16" s="104" t="e">
         <f>O15/K15</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P16" s="103"/>
+      <c r="P16" s="104"/>
       <c r="Q16" s="15" t="s">
         <v>42</v>
       </c>
